--- a/Image/Database && APi.xlsx
+++ b/Image/Database && APi.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="456" windowWidth="23040" windowHeight="9324"/>
+    <workbookView xWindow="0" yWindow="912" windowWidth="23040" windowHeight="9324"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -146,18 +146,6 @@
     <t>search room</t>
   </si>
   <si>
-    <t>add user</t>
-  </si>
-  <si>
-    <t>search user</t>
-  </si>
-  <si>
-    <t>delete user</t>
-  </si>
-  <si>
-    <t>update user</t>
-  </si>
-  <si>
     <t>add bill</t>
   </si>
   <si>
@@ -183,6 +171,18 @@
   </si>
   <si>
     <t>update rent</t>
+  </si>
+  <si>
+    <t>add customer</t>
+  </si>
+  <si>
+    <t>search customer</t>
+  </si>
+  <si>
+    <t>delete customer</t>
+  </si>
+  <si>
+    <t>update customer</t>
   </si>
 </sst>
 </file>
@@ -500,10 +500,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:L21"/>
+  <dimension ref="C2:K23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="M4" sqref="M4"/>
+    <sheetView tabSelected="1" topLeftCell="B10" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="I21" sqref="I21:I22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -511,7 +511,7 @@
     <col min="3" max="3" width="15.88671875" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.88671875" customWidth="1"/>
     <col min="5" max="5" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12.109375" customWidth="1"/>
+    <col min="6" max="6" width="10.77734375" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="10.5546875" customWidth="1"/>
     <col min="9" max="9" width="10.5546875" bestFit="1" customWidth="1"/>
@@ -661,68 +661,70 @@
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C17" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C18" t="s">
         <v>36</v>
       </c>
+      <c r="D18" t="s">
+        <v>49</v>
+      </c>
       <c r="E18" t="s">
         <v>40</v>
       </c>
-      <c r="G18" t="s">
-        <v>44</v>
-      </c>
-      <c r="I18" t="s">
-        <v>48</v>
-      </c>
-      <c r="L18" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="19" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="F18" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="19" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C19" t="s">
         <v>39</v>
       </c>
+      <c r="D19" t="s">
+        <v>50</v>
+      </c>
       <c r="E19" t="s">
         <v>41</v>
       </c>
-      <c r="G19" t="s">
+      <c r="F19" t="s">
         <v>45</v>
       </c>
-      <c r="L19" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="3:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C20" t="s">
         <v>37</v>
       </c>
+      <c r="D20" t="s">
+        <v>51</v>
+      </c>
       <c r="E20" t="s">
         <v>42</v>
       </c>
-      <c r="G20" t="s">
-        <v>46</v>
-      </c>
-      <c r="L20" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="3:12" x14ac:dyDescent="0.3">
+      <c r="F20" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" x14ac:dyDescent="0.3">
       <c r="C21" t="s">
         <v>38</v>
       </c>
+      <c r="D21" t="s">
+        <v>52</v>
+      </c>
       <c r="E21" t="s">
         <v>43</v>
       </c>
-      <c r="G21" t="s">
-        <v>47</v>
-      </c>
-      <c r="L21" t="s">
-        <v>52</v>
+      <c r="F21" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="23" spans="3:6" x14ac:dyDescent="0.3">
+      <c r="C23" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
